--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1997.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1997.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.011*"exchange" + 0.010*"foreign" + 0.007*"account" + 0.007*"control" + 0.007*"payment" + 0.006*"abroad" + 0.005*"import" + 0.005*"yes" + 0.005*"credit" + 0.004*"currency"</t>
-  </si>
-  <si>
-    <t>0.029*"exchange" + 0.018*"foreign" + 0.012*"import" + 0.011*"currency" + 0.010*"resident" + 0.010*"yes" + 0.010*"account" + 0.009*"may" + 0.008*"export" + 0.008*"license"</t>
-  </si>
-  <si>
-    <t>0.008*"exchange" + 0.007*"foreign" + 0.006*"import" + 0.005*"yes" + 0.004*"control" + 0.004*"may" + 0.004*"account" + 0.004*"abroad" + 0.004*"export" + 0.004*"resident"</t>
-  </si>
-  <si>
-    <t>0.005*"foreign" + 0.003*"account" + 0.003*"exchange" + 0.003*"control" + 0.003*"currency" + 0.003*"import" + 0.002*"payment" + 0.002*"resident" + 0.002*"export" + 0.002*"bank"</t>
-  </si>
-  <si>
-    <t>0.023*"foreign" + 0.022*"exchange" + 0.016*"account" + 0.016*"import" + 0.014*"currency" + 0.013*"control" + 0.012*"export" + 0.011*"payment" + 0.011*"yes" + 0.011*"resident"</t>
+    <t>0.024*"limit" + 0.017*"article" + 0.017*"year" + 0.016*"ing" + 0.015*"quantitative" + 0.015*"approval" + 0.014*"indicative" + 0.014*"test" + 0.013*"agreement" + 0.013*"prior"</t>
+  </si>
+  <si>
+    <t>0.035*"investment" + 0.025*"require" + 0.022*"approval" + 0.020*"control" + 0.019*"direct" + 0.015*"bank" + 0.013*"exchange" + 0.013*"credit" + 0.012*"foreign" + 0.012*"ion"</t>
+  </si>
+  <si>
+    <t>0.076*"foreign" + 0.053*"currency" + 0.052*"exchange" + 0.046*"account" + 0.037*"yes" + 0.028*"may" + 0.028*"payment" + 0.023*"bank" + 0.017*"transaction" + 0.016*"transfer"</t>
+  </si>
+  <si>
+    <t>0.062*"import" + 0.048*"export" + 0.028*"requirement" + 0.028*"exchange" + 0.025*"fund" + 0.024*"license" + 0.024*"international" + 0.023*"tax" + 0.020*"monetary" + 0.016*"trade"</t>
+  </si>
+  <si>
+    <t>0.048*"resident" + 0.035*"nonresident" + 0.031*"purchase" + 0.031*"issue" + 0.027*"abroad" + 0.026*"sale" + 0.024*"locally" + 0.022*"account" + 0.022*"control" + 0.021*"country"</t>
   </si>
 </sst>
 </file>
